--- a/templates/check-day.xlsx
+++ b/templates/check-day.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VN210632\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VN210632\AppData\Roaming\MobaXterm\slash\RemoteFiles\262684_2_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="未受領一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,12 +150,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -161,23 +183,30 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -185,33 +214,99 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -487,86 +582,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="12" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="18" width="7.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="45.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="V1:V1048576">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="VnTec">
+      <formula>NOT(ISERROR(SEARCH("VnTec",V1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="VT">
+      <formula>NOT(ISERROR(SEARCH("VT",V1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="VNTEC">
+      <formula>NOT(ISERROR(SEARCH("VNTEC",V1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/check-day.xlsx
+++ b/templates/check-day.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VN210632\AppData\Roaming\MobaXterm\slash\RemoteFiles\262684_2_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.1.217\~\drawing-file-automation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884C0F8-95D4-44EB-BB26-1FCAB220D5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="未受領一覧" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>受領有無
 (Receive)</t>
@@ -109,12 +110,21 @@
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>RC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +294,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -581,13 +675,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,9 +700,10 @@
     <col min="19" max="19" width="45.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" style="1" customWidth="1"/>
     <col min="21" max="22" width="15.7109375" style="1" customWidth="1"/>
+    <col min="23" max="25" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -673,10 +768,19 @@
         <v>20</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -699,17 +803,20 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="VnTec">
-      <formula>NOT(ISERROR(SEARCH("VnTec",V1)))</formula>
+  <conditionalFormatting sqref="Y1:Y2">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="VNTEC">
+      <formula>NOT(ISERROR(SEARCH("VNTEC",Y1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="VT">
-      <formula>NOT(ISERROR(SEARCH("VT",V1)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="VT">
+      <formula>NOT(ISERROR(SEARCH("VT",Y1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="VNTEC">
-      <formula>NOT(ISERROR(SEARCH("VNTEC",V1)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="VnTec">
+      <formula>NOT(ISERROR(SEARCH("VnTec",Y1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/check-day.xlsx
+++ b/templates/check-day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.1.217\~\drawing-file-automation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884C0F8-95D4-44EB-BB26-1FCAB220D5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DF762A-A649-4740-8433-3B4E9D5E16CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,70 +294,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -678,10 +615,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,8 +636,10 @@
     <col min="15" max="18" width="7.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="45.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="15.7109375" style="1" customWidth="1"/>
-    <col min="23" max="25" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="8.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.25">
@@ -808,15 +747,15 @@
       <c r="Y2" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Y1:Y2">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="VNTEC">
+  <conditionalFormatting sqref="Y1:Y1048576">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="VNTEC">
       <formula>NOT(ISERROR(SEARCH("VNTEC",Y1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="VT">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="VnTec">
+      <formula>NOT(ISERROR(SEARCH("VnTec",Y1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="VT">
       <formula>NOT(ISERROR(SEARCH("VT",Y1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="VnTec">
-      <formula>NOT(ISERROR(SEARCH("VnTec",Y1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/check-day.xlsx
+++ b/templates/check-day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.1.217\~\drawing-file-automation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DF762A-A649-4740-8433-3B4E9D5E16CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD2408-4624-4E98-9261-481E048720A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -248,11 +248,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -288,34 +301,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -615,10 +613,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomLeft" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,8 +635,7 @@
     <col min="19" max="19" width="45.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="8.28515625" customWidth="1"/>
+    <col min="22" max="24" width="8.28515625" style="14" customWidth="1"/>
     <col min="25" max="25" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -740,21 +737,21 @@
       <c r="R2" s="6"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
       <c r="Y2" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="VNTEC">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="VNTEC">
       <formula>NOT(ISERROR(SEARCH("VNTEC",Y1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="VnTec">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="VnTec">
       <formula>NOT(ISERROR(SEARCH("VnTec",Y1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="VT">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="VT">
       <formula>NOT(ISERROR(SEARCH("VT",Y1)))</formula>
     </cfRule>
   </conditionalFormatting>
